--- a/мусор/3.xlsx
+++ b/мусор/3.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matvey\Desktop\PhotoManager\мусор\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB93E963-8378-4CDD-9868-9B673765818F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8713279-6D6A-4C40-A164-0A165AB83669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="ЛР3" sheetId="2" r:id="rId1"/>
+    <sheet name="ЛР4" sheetId="3" r:id="rId2"/>
+    <sheet name="ЛР5" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="88">
   <si>
     <t>Название</t>
   </si>
@@ -215,13 +216,97 @@
   </si>
   <si>
     <t>появление сообщения о успешной сортировке фотографий, несмотря на пустой Listview (исправить)</t>
+  </si>
+  <si>
+    <t>TC0011</t>
+  </si>
+  <si>
+    <t>TC0012</t>
+  </si>
+  <si>
+    <t>TC0013</t>
+  </si>
+  <si>
+    <t>TC0014</t>
+  </si>
+  <si>
+    <t>TC0015</t>
+  </si>
+  <si>
+    <t>Просмотр фотографий</t>
+  </si>
+  <si>
+    <t>Открытие формы просмотра фотографии</t>
+  </si>
+  <si>
+    <t>Проверка приближения фотографии</t>
+  </si>
+  <si>
+    <t>Проверка отдаления фотографии</t>
+  </si>
+  <si>
+    <t>Закрытие формы просмотра фотографии</t>
+  </si>
+  <si>
+    <t>Попытка открытия невыбраенной фотографии</t>
+  </si>
+  <si>
+    <t>В списке  просмотра фотографий ListView существует запись с данными: Путь: "C:\Users\3291922-25\Pictures\фотография.jpg", описание: "фото", Дата съемки: "14.06.2025</t>
+  </si>
+  <si>
+    <t>1. Выделить изображение, нажав левой кнопкой мыши по данным</t>
+  </si>
+  <si>
+    <t>2. Нажать на кнопку "Посмотреть фото"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Посмотреть фото"</t>
+  </si>
+  <si>
+    <t>2. В открывшийся форме нажать кнопку "Закрыть"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Форма просмотра фотографий закроется, </t>
+  </si>
+  <si>
+    <t>Появление сообщения с текстом "Сначала Выберите фото для удаления.", форма просмотра фотографий не откроется</t>
+  </si>
+  <si>
+    <t>Откроется форма просмотра фотографий, с выбранной в picturebox, и тремя кнопками, "Приблизить", "Отдалить", "Закрыть"</t>
+  </si>
+  <si>
+    <t>3. Несколько раз нажать на кнопку "Приблизить"</t>
+  </si>
+  <si>
+    <t>3. Несколько раз нажать на кнопку "Отдалить"</t>
+  </si>
+  <si>
+    <t>Изображение в форме увеличится в размере</t>
+  </si>
+  <si>
+    <t>Изображение в форме уменьшится в размере</t>
+  </si>
+  <si>
+    <t>TC0016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка удаления фотографии по одному пути с разными датой и описанием </t>
+  </si>
+  <si>
+    <t>В списке фотографий ListView добавлены две фотографии с одним путем "C:\Users\3291922-25\Pictures\фотография.jpg" и с разными описанием и датой съемки</t>
+  </si>
+  <si>
+    <t>1. Выделить первое в списке изображение, нажав левой кнопкой мыши по данным фото</t>
+  </si>
+  <si>
+    <t>Выделенное фото удалено и в списке фотографий ListView осталась только одна фотография по данному пути</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +369,28 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -308,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -515,6 +622,290 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -527,7 +918,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -569,6 +960,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -595,24 +1004,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -643,14 +1043,131 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -935,107 +1452,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L45"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
-    <col min="3" max="3" width="55" customWidth="1"/>
-    <col min="4" max="4" width="124.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="G2" s="3"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D45" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F431A920-F8BC-4FEB-B532-E4F2CE1C837C}">
   <dimension ref="A1:AP62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,14 +1472,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1119,148 +1540,148 @@
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="42" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="43" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="31"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="31"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:42" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="45"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -1299,184 +1720,184 @@
       <c r="AP14" s="17"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="28" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="43" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="22"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="25"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="22"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="25"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="22"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="25"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="23"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="26"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="36" t="s">
         <v>54</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="34"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="34"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="34"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="34"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="31"/>
     </row>
     <row r="30" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="32"/>
     </row>
     <row r="31" spans="1:40" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="45"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
@@ -1513,76 +1934,76 @@
       <c r="AN31" s="17"/>
     </row>
     <row r="32" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="27" t="s">
         <v>40</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="22"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="31"/>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="22"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="31"/>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="22"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="31"/>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="22"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="31"/>
     </row>
     <row r="37" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="23"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="29"/>
       <c r="D37" s="11"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="32"/>
     </row>
     <row r="38" spans="1:41" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="45"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="35"/>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
@@ -1620,22 +2041,22 @@
       <c r="AO38" s="16"/>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="33" t="s">
         <v>8</v>
       </c>
       <c r="G39" s="16"/>
@@ -1675,238 +2096,238 @@
       <c r="AO39" s="16"/>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="22"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="28"/>
       <c r="D40" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="31"/>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="22"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="28"/>
       <c r="D41" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="31"/>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="22"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="28"/>
       <c r="D42" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="31"/>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="22"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="28"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="31"/>
     </row>
     <row r="44" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="23"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="29"/>
       <c r="D44" s="11"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="32"/>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="22"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="28"/>
       <c r="D46" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="31"/>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="22"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="28"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="31"/>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="22"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="31"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="22"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="28"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="31"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="23"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="29"/>
       <c r="D50" s="11"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="32"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="24" t="s">
+      <c r="F51" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="22"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="28"/>
       <c r="D52" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="19"/>
-      <c r="F52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="31"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="22"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="28"/>
       <c r="D53" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="19"/>
-      <c r="F53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="31"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="22"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="28"/>
       <c r="D54" s="8"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="31"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="22"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="28"/>
       <c r="D55" s="8"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="31"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="23"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="29"/>
       <c r="D56" s="11"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="32"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="27" t="s">
+      <c r="E57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F57" s="24" t="s">
+      <c r="F57" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="22"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="28"/>
       <c r="D58" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E58" s="28"/>
-      <c r="F58" s="25"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="31"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="22"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="28"/>
       <c r="D59" s="8"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="25"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="31"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="22"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="28"/>
       <c r="D60" s="8"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="25"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="31"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="22"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="28"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="25"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="31"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="23"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="29"/>
       <c r="D62" s="11"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="26"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -1968,4 +2389,506 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CAF2FE-DAA5-43D9-B249-77E5F566D148}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" customWidth="1"/>
+    <col min="4" max="4" width="108.7109375" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="52"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+    </row>
+    <row r="7" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L45"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+    <col min="3" max="3" width="64.5703125" customWidth="1"/>
+    <col min="4" max="4" width="92" customWidth="1"/>
+    <col min="5" max="5" width="57.42578125" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="52"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+    </row>
+    <row r="7" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57"/>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="53"/>
+      <c r="F9" s="61"/>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="61"/>
+    </row>
+    <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="61"/>
+    </row>
+    <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="61"/>
+    </row>
+    <row r="13" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="55"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="64"/>
+    </row>
+    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="52"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="53"/>
+      <c r="F15" s="61"/>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="52"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="53"/>
+      <c r="F16" s="61"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="52"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="61"/>
+    </row>
+    <row r="18" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="55"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="64"/>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="54"/>
+    </row>
+    <row r="24" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="71"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="72"/>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="52"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="78"/>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="52"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="78"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="52"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="78"/>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="52"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="78"/>
+    </row>
+    <row r="30" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="55"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="82"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="F25:F30"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>